--- a/Code/Results/Cases/Case_7_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_22/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.74760981496529</v>
+        <v>19.5612447544413</v>
       </c>
       <c r="C2">
-        <v>12.86454355543361</v>
+        <v>10.80022174889795</v>
       </c>
       <c r="D2">
-        <v>2.60721575920972</v>
+        <v>4.660627508659631</v>
       </c>
       <c r="E2">
-        <v>6.315725049034664</v>
+        <v>7.396562915473321</v>
       </c>
       <c r="F2">
-        <v>36.36837037488451</v>
+        <v>24.66350038064834</v>
       </c>
       <c r="G2">
-        <v>2.128005932327874</v>
+        <v>2.102244602958672</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.89583492083916</v>
+        <v>5.962982028699022</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.703015545462536</v>
+        <v>6.602087793001068</v>
       </c>
       <c r="M2">
-        <v>14.40179739473924</v>
+        <v>12.41479761430415</v>
       </c>
       <c r="N2">
-        <v>14.44722413135339</v>
+        <v>12.97805767274174</v>
       </c>
       <c r="O2">
-        <v>27.73695919916732</v>
+        <v>18.50579977454939</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.40055987213904</v>
+        <v>18.3482996196127</v>
       </c>
       <c r="C3">
-        <v>11.97687880326944</v>
+        <v>10.32142633643595</v>
       </c>
       <c r="D3">
-        <v>2.550393861452512</v>
+        <v>4.61463285879374</v>
       </c>
       <c r="E3">
-        <v>6.318993980494147</v>
+        <v>7.457199197650525</v>
       </c>
       <c r="F3">
-        <v>35.60355021641434</v>
+        <v>24.3600935617553</v>
       </c>
       <c r="G3">
-        <v>2.137582073727583</v>
+        <v>2.107814420755365</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.934525816421662</v>
+        <v>6.010066600421655</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.632005418121449</v>
+        <v>6.509373543763221</v>
       </c>
       <c r="M3">
-        <v>13.89375836070131</v>
+        <v>11.91985028595746</v>
       </c>
       <c r="N3">
-        <v>14.70970872666293</v>
+        <v>13.16434368442444</v>
       </c>
       <c r="O3">
-        <v>27.21686497776202</v>
+        <v>18.36443296120128</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.54731014715441</v>
+        <v>17.56640337534795</v>
       </c>
       <c r="C4">
-        <v>11.40283557419956</v>
+        <v>10.01545852743762</v>
       </c>
       <c r="D4">
-        <v>2.515610252773075</v>
+        <v>4.587486485164977</v>
       </c>
       <c r="E4">
-        <v>6.321631432304033</v>
+        <v>7.496279687143992</v>
       </c>
       <c r="F4">
-        <v>35.15938613258609</v>
+        <v>24.19264811593672</v>
       </c>
       <c r="G4">
-        <v>2.143615621937369</v>
+        <v>2.111345000813866</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.958876770647721</v>
+        <v>6.039824870877194</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.590987797980249</v>
+        <v>6.45390644388581</v>
       </c>
       <c r="M4">
-        <v>13.581263529949</v>
+        <v>11.60935912559239</v>
       </c>
       <c r="N4">
-        <v>14.87392157315007</v>
+        <v>13.28188658246818</v>
       </c>
       <c r="O4">
-        <v>26.91837013929759</v>
+        <v>18.29261048034797</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.19334426970014</v>
+        <v>17.23858613292354</v>
       </c>
       <c r="C5">
-        <v>11.1615283619927</v>
+        <v>9.88785863195498</v>
       </c>
       <c r="D5">
-        <v>2.501442887587742</v>
+        <v>4.576704583707282</v>
       </c>
       <c r="E5">
-        <v>6.322857770984462</v>
+        <v>7.51266911854354</v>
       </c>
       <c r="F5">
-        <v>34.98473549677896</v>
+        <v>24.12908604477092</v>
       </c>
       <c r="G5">
-        <v>2.146114855725653</v>
+        <v>2.112812192477419</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.968955146890081</v>
+        <v>6.052169126932879</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.574919986201812</v>
+        <v>6.431687648243336</v>
       </c>
       <c r="M5">
-        <v>13.45393611665104</v>
+        <v>11.48135323123544</v>
       </c>
       <c r="N5">
-        <v>14.9416423758628</v>
+        <v>13.33059268410895</v>
       </c>
       <c r="O5">
-        <v>26.80188840305693</v>
+        <v>18.26701063540126</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.13420129456808</v>
+        <v>17.18360272416528</v>
       </c>
       <c r="C6">
-        <v>11.12101139293548</v>
+        <v>9.866497882186865</v>
       </c>
       <c r="D6">
-        <v>2.499090311022154</v>
+        <v>4.574931342144173</v>
       </c>
       <c r="E6">
-        <v>6.323070366618867</v>
+        <v>7.515418551259708</v>
       </c>
       <c r="F6">
-        <v>34.95611680671825</v>
+        <v>24.11881167164248</v>
       </c>
       <c r="G6">
-        <v>2.146532350346373</v>
+        <v>2.113057554523964</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.970638184179464</v>
+        <v>6.054232139879773</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.572290950901749</v>
+        <v>6.428021954635827</v>
       </c>
       <c r="M6">
-        <v>13.43279938827749</v>
+        <v>11.46001431400338</v>
       </c>
       <c r="N6">
-        <v>14.95293689093851</v>
+        <v>13.33872932750936</v>
       </c>
       <c r="O6">
-        <v>26.78285553392064</v>
+        <v>18.26297836070473</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.54256130636373</v>
+        <v>17.56201928621848</v>
       </c>
       <c r="C7">
-        <v>11.39961120954606</v>
+        <v>10.01374933320799</v>
       </c>
       <c r="D7">
-        <v>2.515419181745015</v>
+        <v>4.587339934430511</v>
       </c>
       <c r="E7">
-        <v>6.321647366187773</v>
+        <v>7.496498844288768</v>
       </c>
       <c r="F7">
-        <v>35.15700509297285</v>
+        <v>24.19177207074014</v>
       </c>
       <c r="G7">
-        <v>2.143649161079216</v>
+        <v>2.111364671875151</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.959012055659477</v>
+        <v>6.039990463602821</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.590768484725712</v>
+        <v>6.453605214014749</v>
       </c>
       <c r="M7">
-        <v>13.57954606155052</v>
+        <v>11.60763852648677</v>
       </c>
       <c r="N7">
-        <v>14.87483158188136</v>
+        <v>13.28254017003068</v>
       </c>
       <c r="O7">
-        <v>26.91677846237561</v>
+        <v>18.29225051325408</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.2887415688753</v>
+        <v>19.15080787991053</v>
       </c>
       <c r="C8">
-        <v>12.56444600255934</v>
+        <v>10.6376745281793</v>
       </c>
       <c r="D8">
-        <v>2.587589642476317</v>
+        <v>4.644544628628236</v>
       </c>
       <c r="E8">
-        <v>6.316716963161005</v>
+        <v>7.417085600060513</v>
       </c>
       <c r="F8">
-        <v>36.09935509508503</v>
+        <v>24.55493822947631</v>
       </c>
       <c r="G8">
-        <v>2.131277026826562</v>
+        <v>2.104142483295989</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.909055646430942</v>
+        <v>5.979043367858962</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.677993899088347</v>
+        <v>6.569827519830822</v>
       </c>
       <c r="M8">
-        <v>14.22683012515355</v>
+        <v>12.24560895966046</v>
       </c>
       <c r="N8">
-        <v>14.53711921170271</v>
+        <v>13.04163945271145</v>
       </c>
       <c r="O8">
-        <v>27.55325603734326</v>
+        <v>18.45389145245907</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.49546065463441</v>
+        <v>21.96712288208744</v>
       </c>
       <c r="C9">
-        <v>14.62258094777194</v>
+        <v>11.76259503985648</v>
       </c>
       <c r="D9">
-        <v>2.730909883154327</v>
+        <v>4.76516575458358</v>
       </c>
       <c r="E9">
-        <v>6.31240140848793</v>
+        <v>7.276098823896944</v>
       </c>
       <c r="F9">
-        <v>38.15104362493243</v>
+        <v>25.4189708880778</v>
       </c>
       <c r="G9">
-        <v>2.108144664595678</v>
+        <v>2.090828608253745</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.815534169202246</v>
+        <v>5.866053720905341</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.869639537591754</v>
+        <v>6.808543753703885</v>
       </c>
       <c r="M9">
-        <v>15.48575640722721</v>
+        <v>13.43755038221144</v>
       </c>
       <c r="N9">
-        <v>13.89728700490098</v>
+        <v>12.59381697666852</v>
       </c>
       <c r="O9">
-        <v>28.97030160690239</v>
+        <v>18.89369433590365</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.71042135617332</v>
+        <v>23.9298133884713</v>
       </c>
       <c r="C10">
-        <v>16.00305004764233</v>
+        <v>12.52532152477295</v>
       </c>
       <c r="D10">
-        <v>2.838793717260328</v>
+        <v>4.858601916421041</v>
       </c>
       <c r="E10">
-        <v>6.313051864779479</v>
+        <v>7.181612582608647</v>
       </c>
       <c r="F10">
-        <v>39.78562864858227</v>
+        <v>26.14874730681442</v>
       </c>
       <c r="G10">
-        <v>2.091699482052952</v>
+        <v>2.081520948216241</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.74911721948993</v>
+        <v>5.786721926824448</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.023174068110867</v>
+        <v>6.989477086164573</v>
       </c>
       <c r="M10">
-        <v>16.39781242424158</v>
+        <v>14.26953875736659</v>
       </c>
       <c r="N10">
-        <v>13.43830513182185</v>
+        <v>12.27907808730122</v>
       </c>
       <c r="O10">
-        <v>30.11929164751166</v>
+        <v>19.29661275138516</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.68693038955968</v>
+        <v>24.78974209990039</v>
       </c>
       <c r="C11">
-        <v>16.60398936424335</v>
+        <v>12.85794828995311</v>
       </c>
       <c r="D11">
-        <v>2.888816341652172</v>
+        <v>4.902082834469308</v>
       </c>
       <c r="E11">
-        <v>6.314324329571614</v>
+        <v>7.140634340878677</v>
       </c>
       <c r="F11">
-        <v>40.55777520808333</v>
+        <v>26.50167908440179</v>
       </c>
       <c r="G11">
-        <v>2.084303178341568</v>
+        <v>2.077379368928198</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.719298959681981</v>
+        <v>5.751361858128357</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.095839148309493</v>
+        <v>7.07277899911336</v>
       </c>
       <c r="M11">
-        <v>16.80899563081536</v>
+        <v>14.63729296978525</v>
       </c>
       <c r="N11">
-        <v>13.23131794270326</v>
+        <v>12.13884542109273</v>
       </c>
       <c r="O11">
-        <v>30.66661249135982</v>
+        <v>19.49813990901499</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.0522661217972</v>
+        <v>25.10867139087893</v>
       </c>
       <c r="C12">
-        <v>16.82779877452615</v>
+        <v>12.98181406997843</v>
       </c>
       <c r="D12">
-        <v>2.907931039289733</v>
+        <v>4.918682331961048</v>
       </c>
       <c r="E12">
-        <v>6.314961018727034</v>
+        <v>7.125408379445584</v>
       </c>
       <c r="F12">
-        <v>40.8543785506001</v>
+        <v>26.63835273139979</v>
       </c>
       <c r="G12">
-        <v>2.081511364348277</v>
+        <v>2.07582346867047</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.708055138227079</v>
+        <v>5.738070655910565</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.123767086107133</v>
+        <v>7.104449075938316</v>
       </c>
       <c r="M12">
-        <v>16.96411784172346</v>
+        <v>14.77492940207391</v>
       </c>
       <c r="N12">
-        <v>13.15314577256739</v>
+        <v>12.08615487460852</v>
       </c>
       <c r="O12">
-        <v>30.87752723883492</v>
+        <v>19.57713974869987</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.97378140311062</v>
+        <v>25.04028135593741</v>
       </c>
       <c r="C13">
-        <v>16.7797620419621</v>
+        <v>12.95523081859013</v>
       </c>
       <c r="D13">
-        <v>2.903806061802707</v>
+        <v>4.915101459402197</v>
       </c>
       <c r="E13">
-        <v>6.314816758350206</v>
+        <v>7.128674533361405</v>
       </c>
       <c r="F13">
-        <v>40.79031057406569</v>
+        <v>26.60878286280558</v>
       </c>
       <c r="G13">
-        <v>2.082112285162478</v>
+        <v>2.076158021600842</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.710474729026459</v>
+        <v>5.740928852885662</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.117733904935195</v>
+        <v>7.097623047513919</v>
       </c>
       <c r="M13">
-        <v>16.93073600072518</v>
+        <v>14.74536031048421</v>
       </c>
       <c r="N13">
-        <v>13.1699730599692</v>
+        <v>12.09748454666023</v>
       </c>
       <c r="O13">
-        <v>30.83193831088597</v>
+        <v>19.56000531011009</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.71707559004437</v>
+        <v>24.81611459234016</v>
       </c>
       <c r="C14">
-        <v>16.62247669717905</v>
+        <v>12.8681808850407</v>
       </c>
       <c r="D14">
-        <v>2.890385244081849</v>
+        <v>4.903445829675285</v>
       </c>
       <c r="E14">
-        <v>6.314373517361864</v>
+        <v>7.139375826174827</v>
       </c>
       <c r="F14">
-        <v>40.58209190431384</v>
+        <v>26.51286259969633</v>
       </c>
       <c r="G14">
-        <v>2.084073333045735</v>
+        <v>2.077251120284489</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.718373022905767</v>
+        <v>5.750266435789525</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.098128515716168</v>
+        <v>7.075382098152881</v>
       </c>
       <c r="M14">
-        <v>16.82176952960778</v>
+        <v>14.64864936714158</v>
       </c>
       <c r="N14">
-        <v>13.22488277076125</v>
+        <v>12.13450233082123</v>
       </c>
       <c r="O14">
-        <v>30.68389056792044</v>
+        <v>19.50458509980897</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.55925829705044</v>
+        <v>24.67793475045981</v>
       </c>
       <c r="C15">
-        <v>16.52565034060445</v>
+        <v>12.81458700640435</v>
       </c>
       <c r="D15">
-        <v>2.882188185973059</v>
+        <v>4.896323719903733</v>
       </c>
       <c r="E15">
-        <v>6.314122646150213</v>
+        <v>7.1459687633758</v>
       </c>
       <c r="F15">
-        <v>40.45510356416502</v>
+        <v>26.45450307080556</v>
       </c>
       <c r="G15">
-        <v>2.085275604254098</v>
+        <v>2.077922265944976</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.723216883545892</v>
+        <v>5.755998673642491</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.086173403357393</v>
+        <v>7.061774707836283</v>
       </c>
       <c r="M15">
-        <v>16.75494731314661</v>
+        <v>14.5891974407021</v>
       </c>
       <c r="N15">
-        <v>13.2585422918064</v>
+        <v>12.15723020220276</v>
       </c>
       <c r="O15">
-        <v>30.59368694649844</v>
+        <v>19.47099019284168</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.64597945139134</v>
+        <v>23.87267242143446</v>
       </c>
       <c r="C16">
-        <v>15.96324436470969</v>
+        <v>12.50329217209499</v>
       </c>
       <c r="D16">
-        <v>2.835546646370915</v>
+        <v>4.85577944904941</v>
       </c>
       <c r="E16">
-        <v>6.312989542812669</v>
+        <v>7.184331215703689</v>
       </c>
       <c r="F16">
-        <v>39.7357496963614</v>
+        <v>26.12610522092226</v>
       </c>
       <c r="G16">
-        <v>2.092184288575963</v>
+        <v>2.081793398144824</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.75107310426755</v>
+        <v>5.789046954743608</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.018482438181992</v>
+        <v>6.984051598983461</v>
       </c>
       <c r="M16">
-        <v>16.37086107319515</v>
+        <v>14.24528200518577</v>
       </c>
       <c r="N16">
-        <v>13.45186432181395</v>
+        <v>12.28830092578629</v>
       </c>
       <c r="O16">
-        <v>30.08402792024546</v>
+        <v>19.28381500060703</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.07775039243035</v>
+        <v>23.36664506063801</v>
       </c>
       <c r="C17">
-        <v>15.6113925651123</v>
+        <v>12.30862492142992</v>
       </c>
       <c r="D17">
-        <v>2.807200186261052</v>
+        <v>4.831152449595442</v>
       </c>
       <c r="E17">
-        <v>6.312554169260933</v>
+        <v>7.208380909085983</v>
       </c>
       <c r="F17">
-        <v>39.30182699963417</v>
+        <v>25.93002100740176</v>
       </c>
       <c r="G17">
-        <v>2.09644208153383</v>
+        <v>2.084191302254509</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.76825697639921</v>
+        <v>5.809503500600102</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.977682216491436</v>
+        <v>6.93661290863708</v>
       </c>
       <c r="M17">
-        <v>16.13424201801107</v>
+        <v>14.03149128061814</v>
       </c>
       <c r="N17">
-        <v>13.57088858289402</v>
+        <v>12.36945472350023</v>
       </c>
       <c r="O17">
-        <v>29.77775317107385</v>
+        <v>19.1737069650488</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.74798921819577</v>
+        <v>23.07114938356134</v>
       </c>
       <c r="C18">
-        <v>15.40646246959645</v>
+        <v>12.19530876574608</v>
       </c>
       <c r="D18">
-        <v>2.790982651400538</v>
+        <v>4.817079908078427</v>
       </c>
       <c r="E18">
-        <v>6.312394699096509</v>
+        <v>7.222402051485599</v>
       </c>
       <c r="F18">
-        <v>39.05492712865154</v>
+        <v>25.8192103198865</v>
       </c>
       <c r="G18">
-        <v>2.098899231934129</v>
+        <v>2.085579277780743</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.778178471316271</v>
+        <v>5.821338491495336</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.954480148487765</v>
+        <v>6.909422028152661</v>
       </c>
       <c r="M18">
-        <v>15.99779674285686</v>
+        <v>13.90751922050074</v>
       </c>
       <c r="N18">
-        <v>13.63952132595449</v>
+        <v>12.41640993468357</v>
       </c>
       <c r="O18">
-        <v>29.60390336453851</v>
+        <v>19.11208893726481</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.63583450541853</v>
+        <v>22.97033456284602</v>
       </c>
       <c r="C19">
-        <v>15.33663404514906</v>
+        <v>12.15671130965587</v>
       </c>
       <c r="D19">
-        <v>2.7855055143688</v>
+        <v>4.812331224564832</v>
       </c>
       <c r="E19">
-        <v>6.312355918634541</v>
+        <v>7.227181629532405</v>
       </c>
       <c r="F19">
-        <v>38.97178901072582</v>
+        <v>25.78202990855199</v>
       </c>
       <c r="G19">
-        <v>2.099732677087561</v>
+        <v>2.086050753596931</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.781544472927633</v>
+        <v>5.825357626995854</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.946669727037033</v>
+        <v>6.900232460794135</v>
       </c>
       <c r="M19">
-        <v>15.95154080985032</v>
+        <v>13.86537452410781</v>
       </c>
       <c r="N19">
-        <v>13.66279042652958</v>
+        <v>12.43235619077898</v>
       </c>
       <c r="O19">
-        <v>29.54543468434131</v>
+        <v>19.09151835678872</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.13854267108474</v>
+        <v>23.42097177153862</v>
       </c>
       <c r="C20">
-        <v>15.64911120408795</v>
+        <v>12.32948741944603</v>
       </c>
       <c r="D20">
-        <v>2.810208504460642</v>
+        <v>4.833764532982624</v>
       </c>
       <c r="E20">
-        <v>6.312591005109204</v>
+        <v>7.205801256681029</v>
       </c>
       <c r="F20">
-        <v>39.34774071889871</v>
+        <v>25.95069032890118</v>
       </c>
       <c r="G20">
-        <v>2.095988007462529</v>
+        <v>2.083935140357402</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.766423876488184</v>
+        <v>5.807318773999417</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.981997994788215</v>
+        <v>6.941653177695805</v>
       </c>
       <c r="M20">
-        <v>16.15946699940841</v>
+        <v>14.0543543591154</v>
       </c>
       <c r="N20">
-        <v>13.55820068559377</v>
+        <v>12.36078710226657</v>
       </c>
       <c r="O20">
-        <v>29.81011667859146</v>
+        <v>19.1852503678198</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.7925965619253</v>
+        <v>24.88213923155134</v>
       </c>
       <c r="C21">
-        <v>16.66877593290667</v>
+        <v>12.89380655331449</v>
       </c>
       <c r="D21">
-        <v>2.89432227826608</v>
+        <v>4.906865776004081</v>
       </c>
       <c r="E21">
-        <v>6.314499380721479</v>
+        <v>7.136224653089905</v>
       </c>
       <c r="F21">
-        <v>40.64313559031174</v>
+        <v>26.54095449468183</v>
       </c>
       <c r="G21">
-        <v>2.083497108342899</v>
+        <v>2.076929720760318</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.716051884734898</v>
+        <v>5.747521125879226</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.103875878584488</v>
+        <v>7.081911534331926</v>
       </c>
       <c r="M21">
-        <v>16.85379174688221</v>
+        <v>14.67710037151488</v>
       </c>
       <c r="N21">
-        <v>13.20874918679063</v>
+        <v>12.12361819839354</v>
       </c>
       <c r="O21">
-        <v>30.72727553329046</v>
+        <v>19.52078998568572</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.84774238563094</v>
+        <v>25.79803982943031</v>
       </c>
       <c r="C22">
-        <v>17.31338158863701</v>
+        <v>13.25041592864949</v>
       </c>
       <c r="D22">
-        <v>2.950319536880971</v>
+        <v>4.955421329610669</v>
       </c>
       <c r="E22">
-        <v>6.316657351070197</v>
+        <v>7.092453995856526</v>
       </c>
       <c r="F22">
-        <v>41.51435334318732</v>
+        <v>26.94436833757626</v>
       </c>
       <c r="G22">
-        <v>2.075384344341038</v>
+        <v>2.07242325118616</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.683404072859537</v>
+        <v>5.709013335155777</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.185931316051201</v>
+        <v>7.174302314978087</v>
       </c>
       <c r="M22">
-        <v>17.30416380973533</v>
+        <v>15.07460704721121</v>
       </c>
       <c r="N22">
-        <v>12.98155802753927</v>
+        <v>11.97101442016933</v>
       </c>
       <c r="O22">
-        <v>31.34807376759104</v>
+        <v>19.75576591544653</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.28693777191521</v>
+        <v>25.31275498758791</v>
       </c>
       <c r="C23">
-        <v>16.97129020587597</v>
+        <v>13.06121127943445</v>
       </c>
       <c r="D23">
-        <v>2.920325848155214</v>
+        <v>4.92943694598509</v>
       </c>
       <c r="E23">
-        <v>6.315416951860732</v>
+        <v>7.115658251938904</v>
       </c>
       <c r="F23">
-        <v>41.04707412002016</v>
+        <v>26.72744104924456</v>
       </c>
       <c r="G23">
-        <v>2.079710775832326</v>
+        <v>2.074822158717034</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.700807069546345</v>
+        <v>5.729515223230629</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.141914698861283</v>
+        <v>7.124930913559428</v>
       </c>
       <c r="M23">
-        <v>17.06411377742504</v>
+        <v>14.86334212647472</v>
       </c>
       <c r="N23">
-        <v>13.10272200973532</v>
+        <v>12.05224579082865</v>
       </c>
       <c r="O23">
-        <v>31.0147418531504</v>
+        <v>19.62890032968899</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.11106807257678</v>
+        <v>23.39642491734296</v>
       </c>
       <c r="C24">
-        <v>15.63206685858282</v>
+        <v>12.32005984036824</v>
       </c>
       <c r="D24">
-        <v>2.808848199717881</v>
+        <v>4.832583342211519</v>
       </c>
       <c r="E24">
-        <v>6.312574069761172</v>
+        <v>7.206966911485196</v>
       </c>
       <c r="F24">
-        <v>39.32697513455359</v>
+        <v>25.94133974698703</v>
       </c>
       <c r="G24">
-        <v>2.096193265183118</v>
+        <v>2.084050921841893</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.767252488655692</v>
+        <v>5.808306257184565</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.980046039026325</v>
+        <v>6.939374214505759</v>
       </c>
       <c r="M24">
-        <v>16.14806405777262</v>
+        <v>14.04402125944625</v>
       </c>
       <c r="N24">
-        <v>13.5639362444298</v>
+        <v>12.36470480227318</v>
       </c>
       <c r="O24">
-        <v>29.79547819403805</v>
+        <v>19.18002635328304</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.65235688369216</v>
+        <v>21.23777405731911</v>
       </c>
       <c r="C25">
-        <v>14.08939702334342</v>
+        <v>11.46925691298719</v>
       </c>
       <c r="D25">
-        <v>2.691801589207447</v>
+        <v>4.731664346206066</v>
       </c>
       <c r="E25">
-        <v>6.312942541752559</v>
+        <v>7.312651154143126</v>
       </c>
       <c r="F25">
-        <v>37.57391000284571</v>
+        <v>25.16868037386552</v>
       </c>
       <c r="G25">
-        <v>2.114295196285513</v>
+        <v>2.094343828252089</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.840399448235602</v>
+        <v>5.89595143148679</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.815572568415562</v>
+        <v>6.742915669541463</v>
       </c>
       <c r="M25">
-        <v>15.14705064820607</v>
+        <v>13.12229640378665</v>
       </c>
       <c r="N25">
-        <v>14.06823543905005</v>
+        <v>12.71240681315077</v>
       </c>
       <c r="O25">
-        <v>28.56837062178004</v>
+        <v>18.76102963887827</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.5612447544413</v>
+        <v>18.08559239800701</v>
       </c>
       <c r="C2">
-        <v>10.80022174889795</v>
+        <v>10.94504013779257</v>
       </c>
       <c r="D2">
-        <v>4.660627508659631</v>
+        <v>5.799625748598797</v>
       </c>
       <c r="E2">
-        <v>7.396562915473321</v>
+        <v>8.339001808324211</v>
       </c>
       <c r="F2">
-        <v>24.66350038064834</v>
+        <v>20.48784665164777</v>
       </c>
       <c r="G2">
-        <v>2.102244602958672</v>
+        <v>22.98822460998751</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.043097417568949</v>
       </c>
       <c r="J2">
-        <v>5.962982028699022</v>
+        <v>9.005166233466538</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.01800741176292</v>
       </c>
       <c r="L2">
-        <v>6.602087793001068</v>
+        <v>6.264425862992466</v>
       </c>
       <c r="M2">
-        <v>12.41479761430415</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.97805767274174</v>
+        <v>7.179765380721862</v>
       </c>
       <c r="O2">
-        <v>18.50579977454939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.86520499691316</v>
+      </c>
+      <c r="P2">
+        <v>12.69307542946534</v>
+      </c>
+      <c r="Q2">
+        <v>14.78921640358425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.3482996196127</v>
+        <v>16.88882794339546</v>
       </c>
       <c r="C3">
-        <v>10.32142633643595</v>
+        <v>10.50096160985456</v>
       </c>
       <c r="D3">
-        <v>4.61463285879374</v>
+        <v>5.708285440488595</v>
       </c>
       <c r="E3">
-        <v>7.457199197650525</v>
+        <v>8.301000796621544</v>
       </c>
       <c r="F3">
-        <v>24.3600935617553</v>
+        <v>20.22445907129445</v>
       </c>
       <c r="G3">
-        <v>2.107814420755365</v>
+        <v>22.49131439299175</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.235809121741097</v>
       </c>
       <c r="J3">
-        <v>6.010066600421655</v>
+        <v>9.00984545759002</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.12888892619215</v>
       </c>
       <c r="L3">
-        <v>6.509373543763221</v>
+        <v>6.240885110985628</v>
       </c>
       <c r="M3">
-        <v>11.91985028595746</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.16434368442444</v>
+        <v>7.019131993465745</v>
       </c>
       <c r="O3">
-        <v>18.36443296120128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.33375475155316</v>
+      </c>
+      <c r="P3">
+        <v>12.76816558135761</v>
+      </c>
+      <c r="Q3">
+        <v>14.69035937868074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.56640337534795</v>
+        <v>16.10854868392529</v>
       </c>
       <c r="C4">
-        <v>10.01545852743762</v>
+        <v>10.217480497033</v>
       </c>
       <c r="D4">
-        <v>4.587486485164977</v>
+        <v>5.652288329802134</v>
       </c>
       <c r="E4">
-        <v>7.496279687143992</v>
+        <v>8.277317769014848</v>
       </c>
       <c r="F4">
-        <v>24.19264811593672</v>
+        <v>20.0723723569011</v>
       </c>
       <c r="G4">
-        <v>2.111345000813866</v>
+        <v>22.19804502750301</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.358425531500819</v>
       </c>
       <c r="J4">
-        <v>6.039824870877194</v>
+        <v>9.016796779385558</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.20429481265315</v>
       </c>
       <c r="L4">
-        <v>6.45390644388581</v>
+        <v>6.225825852426377</v>
       </c>
       <c r="M4">
-        <v>11.60935912559239</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.28188658246818</v>
+        <v>6.918609731394645</v>
       </c>
       <c r="O4">
-        <v>18.29261048034797</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.99512146185173</v>
+      </c>
+      <c r="P4">
+        <v>12.81695518492393</v>
+      </c>
+      <c r="Q4">
+        <v>14.63798866104195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.23858613292354</v>
+        <v>15.77910228756985</v>
       </c>
       <c r="C5">
-        <v>9.88785863195498</v>
+        <v>10.09934599630748</v>
       </c>
       <c r="D5">
-        <v>4.576704583707282</v>
+        <v>5.629509768427061</v>
       </c>
       <c r="E5">
-        <v>7.51266911854354</v>
+        <v>8.267574022607176</v>
       </c>
       <c r="F5">
-        <v>24.12908604477092</v>
+        <v>20.01283106384948</v>
       </c>
       <c r="G5">
-        <v>2.112812192477419</v>
+        <v>22.08161166381178</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.409485258304719</v>
       </c>
       <c r="J5">
-        <v>6.052169126932879</v>
+        <v>9.020630483693489</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.23680803195657</v>
       </c>
       <c r="L5">
-        <v>6.431687648243336</v>
+        <v>6.219534422893009</v>
       </c>
       <c r="M5">
-        <v>11.48135323123544</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.33059268410895</v>
+        <v>6.877206865600691</v>
       </c>
       <c r="O5">
-        <v>18.26701063540126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.8541840891064</v>
+      </c>
+      <c r="P5">
+        <v>12.83750400848623</v>
+      </c>
+      <c r="Q5">
+        <v>14.61870536627286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.18360272416528</v>
+        <v>15.72370353344829</v>
       </c>
       <c r="C6">
-        <v>9.866497882186865</v>
+        <v>10.07957538635837</v>
       </c>
       <c r="D6">
-        <v>4.574931342144173</v>
+        <v>5.62573042356459</v>
       </c>
       <c r="E6">
-        <v>7.515418551259708</v>
+        <v>8.265950348194052</v>
       </c>
       <c r="F6">
-        <v>24.11881167164248</v>
+        <v>20.00309159742991</v>
       </c>
       <c r="G6">
-        <v>2.113057554523964</v>
+        <v>22.06246651874705</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.418030065460417</v>
       </c>
       <c r="J6">
-        <v>6.054232139879773</v>
+        <v>9.021326805174528</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.24231300032077</v>
       </c>
       <c r="L6">
-        <v>6.428021954635827</v>
+        <v>6.218480323527277</v>
       </c>
       <c r="M6">
-        <v>11.46001431400338</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.33872932750936</v>
+        <v>6.870306533041802</v>
       </c>
       <c r="O6">
-        <v>18.26297836070473</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.83060892122533</v>
+      </c>
+      <c r="P6">
+        <v>12.84095616123823</v>
+      </c>
+      <c r="Q6">
+        <v>14.61562657384635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.56201928621848</v>
+        <v>16.1041521805525</v>
       </c>
       <c r="C7">
-        <v>10.01374933320799</v>
+        <v>10.21589772543363</v>
       </c>
       <c r="D7">
-        <v>4.587339934430511</v>
+        <v>5.651980940052112</v>
       </c>
       <c r="E7">
-        <v>7.496498844288768</v>
+        <v>8.277186742889064</v>
       </c>
       <c r="F7">
-        <v>24.19177207074014</v>
+        <v>20.07155949013707</v>
       </c>
       <c r="G7">
-        <v>2.111364671875151</v>
+        <v>22.19646218572293</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.359109699373105</v>
       </c>
       <c r="J7">
-        <v>6.039990463602821</v>
+        <v>9.016844461583339</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.20472614455234</v>
       </c>
       <c r="L7">
-        <v>6.453605214014749</v>
+        <v>6.225741633455233</v>
       </c>
       <c r="M7">
-        <v>11.60763852648677</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.28254017003068</v>
+        <v>6.918053086388033</v>
       </c>
       <c r="O7">
-        <v>18.29225051325408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.99323241730185</v>
+      </c>
+      <c r="P7">
+        <v>12.81722962464411</v>
+      </c>
+      <c r="Q7">
+        <v>14.63772031651679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.15080787991053</v>
+        <v>17.68235623953811</v>
       </c>
       <c r="C8">
-        <v>10.6376745281793</v>
+        <v>10.79422548264655</v>
       </c>
       <c r="D8">
-        <v>4.644544628628236</v>
+        <v>5.768125080222643</v>
       </c>
       <c r="E8">
-        <v>7.417085600060513</v>
+        <v>8.325968897863936</v>
       </c>
       <c r="F8">
-        <v>24.55493822947631</v>
+        <v>20.39504059721587</v>
       </c>
       <c r="G8">
-        <v>2.104142483295989</v>
+        <v>22.8144964103309</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.108662234056002</v>
       </c>
       <c r="J8">
-        <v>5.979043367858962</v>
+        <v>9.005918465539816</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.05468414485471</v>
       </c>
       <c r="L8">
-        <v>6.569827519830822</v>
+        <v>6.256433079740098</v>
       </c>
       <c r="M8">
-        <v>12.24560895966046</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>13.04163945271145</v>
+        <v>7.124793233108187</v>
       </c>
       <c r="O8">
-        <v>18.45389145245907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.68460495591113</v>
+      </c>
+      <c r="P8">
+        <v>12.71840431401325</v>
+      </c>
+      <c r="Q8">
+        <v>14.75338163399623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.96712288208744</v>
+        <v>20.41855644616008</v>
       </c>
       <c r="C9">
-        <v>11.76259503985648</v>
+        <v>11.83859437241948</v>
       </c>
       <c r="D9">
-        <v>4.76516575458358</v>
+        <v>5.995746168608751</v>
       </c>
       <c r="E9">
-        <v>7.276098823896944</v>
+        <v>8.419072156757368</v>
       </c>
       <c r="F9">
-        <v>25.4189708880778</v>
+        <v>21.10498128903281</v>
       </c>
       <c r="G9">
-        <v>2.090828608253745</v>
+        <v>24.11558986179398</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.650938352763571</v>
       </c>
       <c r="J9">
-        <v>5.866053720905341</v>
+        <v>9.017944121658736</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.82125019038404</v>
       </c>
       <c r="L9">
-        <v>6.808543753703885</v>
+        <v>6.311934807597949</v>
       </c>
       <c r="M9">
-        <v>13.43755038221144</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.59381697666852</v>
+        <v>7.513685538848218</v>
       </c>
       <c r="O9">
-        <v>18.89369433590365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12.93687320435443</v>
+      </c>
+      <c r="P9">
+        <v>12.5463048070646</v>
+      </c>
+      <c r="Q9">
+        <v>15.04768478978118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.9298133884713</v>
+        <v>22.18032790221452</v>
       </c>
       <c r="C10">
-        <v>12.52532152477295</v>
+        <v>12.57560971979253</v>
       </c>
       <c r="D10">
-        <v>4.858601916421041</v>
+        <v>6.132188234490769</v>
       </c>
       <c r="E10">
-        <v>7.181612582608647</v>
+        <v>8.453116497097051</v>
       </c>
       <c r="F10">
-        <v>26.14874730681442</v>
+        <v>21.56867776616845</v>
       </c>
       <c r="G10">
-        <v>2.081520948216241</v>
+        <v>24.98223934180903</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>1.777690096950594</v>
       </c>
       <c r="J10">
-        <v>5.786721926824448</v>
+        <v>9.025372592298558</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.64488267827616</v>
       </c>
       <c r="L10">
-        <v>6.989477086164573</v>
+        <v>6.350488414892099</v>
       </c>
       <c r="M10">
-        <v>14.26953875736659</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12.27907808730122</v>
+        <v>7.724854204052662</v>
       </c>
       <c r="O10">
-        <v>19.29661275138516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.72534379046846</v>
+      </c>
+      <c r="P10">
+        <v>12.44823066195508</v>
+      </c>
+      <c r="Q10">
+        <v>15.24807130913338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.78974209990039</v>
+        <v>22.65633368875246</v>
       </c>
       <c r="C11">
-        <v>12.85794828995311</v>
+        <v>13.14760724004262</v>
       </c>
       <c r="D11">
-        <v>4.902082834469308</v>
+        <v>5.939899464926693</v>
       </c>
       <c r="E11">
-        <v>7.140634340878677</v>
+        <v>8.247838496501201</v>
       </c>
       <c r="F11">
-        <v>26.50167908440179</v>
+        <v>20.89750101156773</v>
       </c>
       <c r="G11">
-        <v>2.077379368928198</v>
+        <v>24.19777407340066</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.747899797122389</v>
       </c>
       <c r="J11">
-        <v>5.751361858128357</v>
+        <v>8.829741438001442</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.17742513907355</v>
       </c>
       <c r="L11">
-        <v>7.07277899911336</v>
+        <v>6.408287960050376</v>
       </c>
       <c r="M11">
-        <v>14.63729296978525</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>12.13884542109273</v>
+        <v>7.291514018238164</v>
       </c>
       <c r="O11">
-        <v>19.49813990901499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.53197236301659</v>
+      </c>
+      <c r="P11">
+        <v>12.5439905101695</v>
+      </c>
+      <c r="Q11">
+        <v>14.83682044413661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.10867139087893</v>
+        <v>22.6982099995754</v>
       </c>
       <c r="C12">
-        <v>12.98181406997843</v>
+        <v>13.48508257019887</v>
       </c>
       <c r="D12">
-        <v>4.918682331961048</v>
+        <v>5.750207624925899</v>
       </c>
       <c r="E12">
-        <v>7.125408379445584</v>
+        <v>8.160207186149577</v>
       </c>
       <c r="F12">
-        <v>26.63835273139979</v>
+        <v>20.21514988117987</v>
       </c>
       <c r="G12">
-        <v>2.07582346867047</v>
+        <v>23.32739260749691</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.065795425618044</v>
       </c>
       <c r="J12">
-        <v>5.738070655910565</v>
+        <v>8.657604522304252</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.81783882534454</v>
       </c>
       <c r="L12">
-        <v>7.104449075938316</v>
+        <v>6.497184705012899</v>
       </c>
       <c r="M12">
-        <v>14.77492940207391</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>12.08615487460852</v>
+        <v>6.898934994444477</v>
       </c>
       <c r="O12">
-        <v>19.57713974869987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.19762809430344</v>
+      </c>
+      <c r="P12">
+        <v>12.65740318649201</v>
+      </c>
+      <c r="Q12">
+        <v>14.43476556688801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.04028135593741</v>
+        <v>22.4106025589</v>
       </c>
       <c r="C13">
-        <v>12.95523081859013</v>
+        <v>13.66932159606703</v>
       </c>
       <c r="D13">
-        <v>4.915101459402197</v>
+        <v>5.550107473798667</v>
       </c>
       <c r="E13">
-        <v>7.128674533361405</v>
+        <v>8.157441992118981</v>
       </c>
       <c r="F13">
-        <v>26.60878286280558</v>
+        <v>19.47459335960333</v>
       </c>
       <c r="G13">
-        <v>2.076158021600842</v>
+        <v>22.31863481377946</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.457259610028633</v>
       </c>
       <c r="J13">
-        <v>5.740928852885662</v>
+        <v>8.492527650979298</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.52165619106557</v>
       </c>
       <c r="L13">
-        <v>7.097623047513919</v>
+        <v>6.610813350634094</v>
       </c>
       <c r="M13">
-        <v>14.74536031048421</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>12.09748454666023</v>
+        <v>6.514484770127931</v>
       </c>
       <c r="O13">
-        <v>19.56000531011009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>12.7263151619547</v>
+      </c>
+      <c r="P13">
+        <v>12.78608393341562</v>
+      </c>
+      <c r="Q13">
+        <v>14.0114143773564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.81611459234016</v>
+        <v>22.0558871164816</v>
       </c>
       <c r="C14">
-        <v>12.8681808850407</v>
+        <v>13.73097944829138</v>
       </c>
       <c r="D14">
-        <v>4.903445829675285</v>
+        <v>5.406168838910518</v>
       </c>
       <c r="E14">
-        <v>7.139375826174827</v>
+        <v>8.205224492832942</v>
       </c>
       <c r="F14">
-        <v>26.51286259969633</v>
+        <v>18.92896502161108</v>
       </c>
       <c r="G14">
-        <v>2.077251120284489</v>
+        <v>21.54362304530497</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.483541415595832</v>
       </c>
       <c r="J14">
-        <v>5.750266435789525</v>
+        <v>8.380764766092629</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.34680397245853</v>
       </c>
       <c r="L14">
-        <v>7.075382098152881</v>
+        <v>6.705136478750055</v>
       </c>
       <c r="M14">
-        <v>14.64864936714158</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>12.13450233082123</v>
+        <v>6.254900066733232</v>
       </c>
       <c r="O14">
-        <v>19.50458509980897</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12.32882409266002</v>
+      </c>
+      <c r="P14">
+        <v>12.88254834198073</v>
+      </c>
+      <c r="Q14">
+        <v>13.70562277857316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.67793475045981</v>
+        <v>21.89755922016722</v>
       </c>
       <c r="C15">
-        <v>12.81458700640435</v>
+        <v>13.71266972023601</v>
       </c>
       <c r="D15">
-        <v>4.896323719903733</v>
+        <v>5.36884047439624</v>
       </c>
       <c r="E15">
-        <v>7.1459687633758</v>
+        <v>8.221836715798458</v>
       </c>
       <c r="F15">
-        <v>26.45450307080556</v>
+        <v>18.78627390020134</v>
       </c>
       <c r="G15">
-        <v>2.077922265944976</v>
+        <v>21.32778968564163</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.72110317268192</v>
       </c>
       <c r="J15">
-        <v>5.755998673642491</v>
+        <v>8.35597706165913</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.31871337088706</v>
       </c>
       <c r="L15">
-        <v>7.061774707836283</v>
+        <v>6.726703201689254</v>
       </c>
       <c r="M15">
-        <v>14.5891974407021</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12.15723020220276</v>
+        <v>6.191378139727529</v>
       </c>
       <c r="O15">
-        <v>19.47099019284168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.20258014960919</v>
+      </c>
+      <c r="P15">
+        <v>12.90711146527038</v>
+      </c>
+      <c r="Q15">
+        <v>13.62854898414975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.87267242143446</v>
+        <v>21.21507091156718</v>
       </c>
       <c r="C16">
-        <v>12.50329217209499</v>
+        <v>13.38038675205266</v>
       </c>
       <c r="D16">
-        <v>4.85577944904941</v>
+        <v>5.348721097994694</v>
       </c>
       <c r="E16">
-        <v>7.184331215703689</v>
+        <v>8.201508372200065</v>
       </c>
       <c r="F16">
-        <v>26.12610522092226</v>
+        <v>18.72023566451424</v>
       </c>
       <c r="G16">
-        <v>2.081793398144824</v>
+        <v>21.11690933697918</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.511596075805698</v>
       </c>
       <c r="J16">
-        <v>5.789046954743608</v>
+        <v>8.384786713847253</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.45771045930838</v>
       </c>
       <c r="L16">
-        <v>6.984051598983461</v>
+        <v>6.681355902381537</v>
       </c>
       <c r="M16">
-        <v>14.24528200518577</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>12.28830092578629</v>
+        <v>6.173097576445033</v>
       </c>
       <c r="O16">
-        <v>19.28381500060703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.94314123760614</v>
+      </c>
+      <c r="P16">
+        <v>12.9099700489243</v>
+      </c>
+      <c r="Q16">
+        <v>13.61978972442707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.36664506063801</v>
+        <v>20.87832316223834</v>
       </c>
       <c r="C17">
-        <v>12.30862492142992</v>
+        <v>13.08666584158855</v>
       </c>
       <c r="D17">
-        <v>4.831152449595442</v>
+        <v>5.409935111215252</v>
       </c>
       <c r="E17">
-        <v>7.208380909085983</v>
+        <v>8.153446498694988</v>
       </c>
       <c r="F17">
-        <v>25.93002100740176</v>
+        <v>18.96510045841036</v>
       </c>
       <c r="G17">
-        <v>2.084191302254509</v>
+        <v>21.38091879186375</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.773153480368953</v>
       </c>
       <c r="J17">
-        <v>5.809503500600102</v>
+        <v>8.466904747520738</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.65570670767782</v>
       </c>
       <c r="L17">
-        <v>6.93661290863708</v>
+        <v>6.593457582897276</v>
       </c>
       <c r="M17">
-        <v>14.03149128061814</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>12.36945472350023</v>
+        <v>6.294677826048274</v>
       </c>
       <c r="O17">
-        <v>19.1737069650488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.96159135245798</v>
+      </c>
+      <c r="P17">
+        <v>12.86272226256016</v>
+      </c>
+      <c r="Q17">
+        <v>13.77849679960967</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.07114938356134</v>
+        <v>20.81163737354863</v>
       </c>
       <c r="C18">
-        <v>12.19530876574608</v>
+        <v>12.79804795073433</v>
       </c>
       <c r="D18">
-        <v>4.817079908078427</v>
+        <v>5.550562584870016</v>
       </c>
       <c r="E18">
-        <v>7.222402051485599</v>
+        <v>8.122565462190373</v>
       </c>
       <c r="F18">
-        <v>25.8192103198865</v>
+        <v>19.4989205204743</v>
       </c>
       <c r="G18">
-        <v>2.085579277780743</v>
+        <v>22.072678377056</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.517106385610379</v>
       </c>
       <c r="J18">
-        <v>5.821338491495336</v>
+        <v>8.602092494935611</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.9282971343765</v>
       </c>
       <c r="L18">
-        <v>6.909422028152661</v>
+        <v>6.479742145312763</v>
       </c>
       <c r="M18">
-        <v>13.90751922050074</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.41640993468357</v>
+        <v>6.567398424302105</v>
       </c>
       <c r="O18">
-        <v>19.11208893726481</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.22188940591389</v>
+      </c>
+      <c r="P18">
+        <v>12.7712825201514</v>
+      </c>
+      <c r="Q18">
+        <v>14.09417523502418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.97033456284602</v>
+        <v>20.96785478416593</v>
       </c>
       <c r="C19">
-        <v>12.15671130965587</v>
+        <v>12.54056036689386</v>
       </c>
       <c r="D19">
-        <v>4.812331224564832</v>
+        <v>5.748406998786455</v>
       </c>
       <c r="E19">
-        <v>7.227181629532405</v>
+        <v>8.176306464694424</v>
       </c>
       <c r="F19">
-        <v>25.78202990855199</v>
+        <v>20.22158452043801</v>
       </c>
       <c r="G19">
-        <v>2.086050753596931</v>
+        <v>23.04491246204804</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.023805866681458</v>
       </c>
       <c r="J19">
-        <v>5.825357626995854</v>
+        <v>8.769217915766861</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.24708429880141</v>
       </c>
       <c r="L19">
-        <v>6.900232460794135</v>
+        <v>6.385011378077794</v>
       </c>
       <c r="M19">
-        <v>13.86537452410781</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.43235619077898</v>
+        <v>6.963145197524903</v>
       </c>
       <c r="O19">
-        <v>19.09151835678872</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.65117893240458</v>
+      </c>
+      <c r="P19">
+        <v>12.65664162607422</v>
+      </c>
+      <c r="Q19">
+        <v>14.50997477667129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.42097177153862</v>
+        <v>21.73032365233867</v>
       </c>
       <c r="C20">
-        <v>12.32948741944603</v>
+        <v>12.38768596445954</v>
       </c>
       <c r="D20">
-        <v>4.833764532982624</v>
+        <v>6.095120682570827</v>
       </c>
       <c r="E20">
-        <v>7.205801256681029</v>
+        <v>8.442661206793538</v>
       </c>
       <c r="F20">
-        <v>25.95069032890118</v>
+        <v>21.43931659777289</v>
       </c>
       <c r="G20">
-        <v>2.083935140357402</v>
+        <v>24.74518918732607</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1.696879223343684</v>
       </c>
       <c r="J20">
-        <v>5.807318773999417</v>
+        <v>9.020896515074401</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.6863776593041</v>
       </c>
       <c r="L20">
-        <v>6.941653177695805</v>
+        <v>6.340424791296035</v>
       </c>
       <c r="M20">
-        <v>14.0543543591154</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>12.36078710226657</v>
+        <v>7.667290792363825</v>
       </c>
       <c r="O20">
-        <v>19.1852503678198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>13.52000286185207</v>
+      </c>
+      <c r="P20">
+        <v>12.47346238045811</v>
+      </c>
+      <c r="Q20">
+        <v>15.18991016174688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.88213923155134</v>
+        <v>23.06588451330423</v>
       </c>
       <c r="C21">
-        <v>12.89380655331449</v>
+        <v>12.88886853459196</v>
       </c>
       <c r="D21">
-        <v>4.906865776004081</v>
+        <v>6.245108812255252</v>
       </c>
       <c r="E21">
-        <v>7.136224653089905</v>
+        <v>8.519915161690927</v>
       </c>
       <c r="F21">
-        <v>26.54095449468183</v>
+        <v>21.96751198191652</v>
       </c>
       <c r="G21">
-        <v>2.076929720760318</v>
+        <v>25.63578676096767</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>1.933152969316351</v>
       </c>
       <c r="J21">
-        <v>5.747521125879226</v>
+        <v>9.069953148479877</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.63601353618828</v>
       </c>
       <c r="L21">
-        <v>7.081911534331926</v>
+        <v>6.368629875902389</v>
       </c>
       <c r="M21">
-        <v>14.67710037151488</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12.12361819839354</v>
+        <v>7.922272882226958</v>
       </c>
       <c r="O21">
-        <v>19.52078998568572</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>14.19840171873124</v>
+      </c>
+      <c r="P21">
+        <v>12.38046503659686</v>
+      </c>
+      <c r="Q21">
+        <v>15.44838289012774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.79803982943031</v>
+        <v>23.88337223352803</v>
       </c>
       <c r="C22">
-        <v>13.25041592864949</v>
+        <v>13.21963530412263</v>
       </c>
       <c r="D22">
-        <v>4.955421329610669</v>
+        <v>6.327456900481347</v>
       </c>
       <c r="E22">
-        <v>7.092453995856526</v>
+        <v>8.553286551136722</v>
       </c>
       <c r="F22">
-        <v>26.94436833757626</v>
+        <v>22.26777630210011</v>
       </c>
       <c r="G22">
-        <v>2.07242325118616</v>
+        <v>26.15425737306231</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.081304569178225</v>
       </c>
       <c r="J22">
-        <v>5.709013335155777</v>
+        <v>9.094554247939907</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.58850950344327</v>
       </c>
       <c r="L22">
-        <v>7.174302314978087</v>
+        <v>6.386778632287216</v>
       </c>
       <c r="M22">
-        <v>15.07460704721121</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.97101442016933</v>
+        <v>8.054149508023624</v>
       </c>
       <c r="O22">
-        <v>19.75576591544653</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>14.59584856792318</v>
+      </c>
+      <c r="P22">
+        <v>12.32971043046776</v>
+      </c>
+      <c r="Q22">
+        <v>15.59546930689973</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.31275498758791</v>
+        <v>23.45056170649767</v>
       </c>
       <c r="C23">
-        <v>13.06121127943445</v>
+        <v>13.0441706910483</v>
       </c>
       <c r="D23">
-        <v>4.92943694598509</v>
+        <v>6.283556747248135</v>
       </c>
       <c r="E23">
-        <v>7.115658251938904</v>
+        <v>8.535484379001728</v>
       </c>
       <c r="F23">
-        <v>26.72744104924456</v>
+        <v>22.10684253572132</v>
       </c>
       <c r="G23">
-        <v>2.074822158717034</v>
+        <v>25.87695830674604</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.002517145236418</v>
       </c>
       <c r="J23">
-        <v>5.729515223230629</v>
+        <v>9.081012916551126</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.61304049316059</v>
       </c>
       <c r="L23">
-        <v>7.124930913559428</v>
+        <v>6.377130803066336</v>
       </c>
       <c r="M23">
-        <v>14.86334212647472</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>12.05224579082865</v>
+        <v>7.984012526586834</v>
       </c>
       <c r="O23">
-        <v>19.62890032968899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>14.3850089877435</v>
+      </c>
+      <c r="P23">
+        <v>12.35654489612852</v>
+      </c>
+      <c r="Q23">
+        <v>15.51621797066614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.39642491734296</v>
+        <v>21.73424050554525</v>
       </c>
       <c r="C24">
-        <v>12.32005984036824</v>
+        <v>12.35630171204123</v>
       </c>
       <c r="D24">
-        <v>4.832583342211519</v>
+        <v>6.116275690328559</v>
       </c>
       <c r="E24">
-        <v>7.206966911485196</v>
+        <v>8.467830360845555</v>
       </c>
       <c r="F24">
-        <v>25.94133974698703</v>
+        <v>21.51243558210493</v>
       </c>
       <c r="G24">
-        <v>2.084050921841893</v>
+        <v>24.84015258353162</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>1.697785736865902</v>
       </c>
       <c r="J24">
-        <v>5.808306257184565</v>
+        <v>9.03861791955566</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.72355595358865</v>
       </c>
       <c r="L24">
-        <v>6.939374214505759</v>
+        <v>6.339725167633863</v>
       </c>
       <c r="M24">
-        <v>14.04402125944625</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>12.36470480227318</v>
+        <v>7.713071940979813</v>
       </c>
       <c r="O24">
-        <v>19.18002635328304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>13.55857350234698</v>
+      </c>
+      <c r="P24">
+        <v>12.46367671077123</v>
+      </c>
+      <c r="Q24">
+        <v>15.23242846036436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.23777405731911</v>
+        <v>19.71644069297315</v>
       </c>
       <c r="C25">
-        <v>11.46925691298719</v>
+        <v>11.56616336220899</v>
       </c>
       <c r="D25">
-        <v>4.731664346206066</v>
+        <v>5.934295426775013</v>
       </c>
       <c r="E25">
-        <v>7.312651154143126</v>
+        <v>8.394126684626757</v>
       </c>
       <c r="F25">
-        <v>25.16868037386552</v>
+        <v>20.90496459733648</v>
       </c>
       <c r="G25">
-        <v>2.094343828252089</v>
+        <v>23.7547473385107</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.771282830812426</v>
       </c>
       <c r="J25">
-        <v>5.89595143148679</v>
+        <v>9.01095539387442</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.87750215793632</v>
       </c>
       <c r="L25">
-        <v>6.742915669541463</v>
+        <v>6.297404427318806</v>
       </c>
       <c r="M25">
-        <v>13.12229640378665</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.71240681315077</v>
+        <v>7.410449540058192</v>
       </c>
       <c r="O25">
-        <v>18.76102963887827</v>
+        <v>12.60990392309156</v>
+      </c>
+      <c r="P25">
+        <v>12.59048059919987</v>
+      </c>
+      <c r="Q25">
+        <v>14.96065528864645</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.08559239800701</v>
+        <v>17.91358720322357</v>
       </c>
       <c r="C2">
-        <v>10.94504013779257</v>
+        <v>11.03640499858687</v>
       </c>
       <c r="D2">
-        <v>5.799625748598797</v>
+        <v>5.809319967009867</v>
       </c>
       <c r="E2">
-        <v>8.339001808324211</v>
+        <v>8.270534147826242</v>
       </c>
       <c r="F2">
-        <v>20.48784665164777</v>
+        <v>20.1275780750073</v>
       </c>
       <c r="G2">
-        <v>22.98822460998751</v>
+        <v>21.77489029904968</v>
       </c>
       <c r="H2">
-        <v>2.043097417568949</v>
+        <v>1.998948739036331</v>
       </c>
       <c r="J2">
-        <v>9.005166233466538</v>
+        <v>9.348347822069169</v>
       </c>
       <c r="K2">
-        <v>14.01800741176292</v>
+        <v>13.64209676012618</v>
       </c>
       <c r="L2">
-        <v>6.264425862992466</v>
+        <v>11.7805209712845</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.406447443946671</v>
       </c>
       <c r="N2">
-        <v>7.179765380721862</v>
+        <v>6.2257497498337</v>
       </c>
       <c r="O2">
-        <v>11.86520499691316</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.69307542946534</v>
+        <v>7.31466439168246</v>
       </c>
       <c r="Q2">
-        <v>14.78921640358425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.83030058695277</v>
+      </c>
+      <c r="R2">
+        <v>12.6749135404964</v>
+      </c>
+      <c r="S2">
+        <v>14.51568340113559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.88882794339546</v>
+        <v>16.75863133590516</v>
       </c>
       <c r="C3">
-        <v>10.50096160985456</v>
+        <v>10.50339395713525</v>
       </c>
       <c r="D3">
-        <v>5.708285440488595</v>
+        <v>5.720699641087474</v>
       </c>
       <c r="E3">
-        <v>8.301000796621544</v>
+        <v>8.240310995551262</v>
       </c>
       <c r="F3">
-        <v>20.22445907129445</v>
+        <v>19.89329483804811</v>
       </c>
       <c r="G3">
-        <v>22.49131439299175</v>
+        <v>21.34352267579179</v>
       </c>
       <c r="H3">
-        <v>2.235809121741097</v>
+        <v>2.178122845893714</v>
       </c>
       <c r="J3">
-        <v>9.00984545759002</v>
+        <v>9.328336207068087</v>
       </c>
       <c r="K3">
-        <v>14.12888892619215</v>
+        <v>13.76271358867197</v>
       </c>
       <c r="L3">
-        <v>6.240885110985628</v>
+        <v>11.9421591304791</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.445273243729767</v>
       </c>
       <c r="N3">
-        <v>7.019131993465745</v>
+        <v>6.202040540639969</v>
       </c>
       <c r="O3">
-        <v>11.33375475155316</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.76816558135761</v>
+        <v>7.153372533322708</v>
       </c>
       <c r="Q3">
-        <v>14.69035937868074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.30028099191321</v>
+      </c>
+      <c r="R3">
+        <v>12.72731769229288</v>
+      </c>
+      <c r="S3">
+        <v>14.43506361420594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.10854868392529</v>
+        <v>16.00550198180718</v>
       </c>
       <c r="C4">
-        <v>10.217480497033</v>
+        <v>10.16235494271494</v>
       </c>
       <c r="D4">
-        <v>5.652288329802134</v>
+        <v>5.666593482277572</v>
       </c>
       <c r="E4">
-        <v>8.277317769014848</v>
+        <v>8.221492579219101</v>
       </c>
       <c r="F4">
-        <v>20.0723723569011</v>
+        <v>19.75763066633643</v>
       </c>
       <c r="G4">
-        <v>22.19804502750301</v>
+        <v>21.09188362922599</v>
       </c>
       <c r="H4">
-        <v>2.358425531500819</v>
+        <v>2.292167807413468</v>
       </c>
       <c r="J4">
-        <v>9.016796779385558</v>
+        <v>9.318051877032724</v>
       </c>
       <c r="K4">
-        <v>14.20429481265315</v>
+        <v>13.84260680665686</v>
       </c>
       <c r="L4">
-        <v>6.225825852426377</v>
+        <v>12.04562300768817</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.491280638495981</v>
       </c>
       <c r="N4">
-        <v>6.918609731394645</v>
+        <v>6.186920360766608</v>
       </c>
       <c r="O4">
-        <v>10.99512146185173</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.81695518492393</v>
+        <v>7.052842233589585</v>
       </c>
       <c r="Q4">
-        <v>14.63798866104195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.96220957404131</v>
+      </c>
+      <c r="R4">
+        <v>12.76240997983264</v>
+      </c>
+      <c r="S4">
+        <v>14.39255293615413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.77910228756985</v>
+        <v>15.68750044080641</v>
       </c>
       <c r="C5">
-        <v>10.09934599630748</v>
+        <v>10.02005664207075</v>
       </c>
       <c r="D5">
-        <v>5.629509768427061</v>
+        <v>5.644641609248883</v>
       </c>
       <c r="E5">
-        <v>8.267574022607176</v>
+        <v>8.213753822996328</v>
       </c>
       <c r="F5">
-        <v>20.01283106384948</v>
+        <v>19.70440767018557</v>
       </c>
       <c r="G5">
-        <v>22.08161166381178</v>
+        <v>20.99270923664266</v>
       </c>
       <c r="H5">
-        <v>2.409485258304719</v>
+        <v>2.339667645271894</v>
       </c>
       <c r="J5">
-        <v>9.020630483693489</v>
+        <v>9.314356861826177</v>
       </c>
       <c r="K5">
-        <v>14.23680803195657</v>
+        <v>13.87658913475966</v>
       </c>
       <c r="L5">
-        <v>6.219534422893009</v>
+        <v>12.08885757458714</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.515474611271877</v>
       </c>
       <c r="N5">
-        <v>6.877206865600691</v>
+        <v>6.180615084611148</v>
       </c>
       <c r="O5">
-        <v>10.8541840891064</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.83750400848623</v>
+        <v>7.011540518194072</v>
       </c>
       <c r="Q5">
-        <v>14.61870536627286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.82141769572292</v>
+      </c>
+      <c r="R5">
+        <v>12.77743424436373</v>
+      </c>
+      <c r="S5">
+        <v>14.37695157026459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.72370353344829</v>
+        <v>15.63402539926389</v>
       </c>
       <c r="C6">
-        <v>10.07957538635837</v>
+        <v>9.996232034967141</v>
       </c>
       <c r="D6">
-        <v>5.62573042356459</v>
+        <v>5.641002938132237</v>
       </c>
       <c r="E6">
-        <v>8.265950348194052</v>
+        <v>8.212464448906218</v>
       </c>
       <c r="F6">
-        <v>20.00309159742991</v>
+        <v>19.6956944997576</v>
       </c>
       <c r="G6">
-        <v>22.06246651874705</v>
+        <v>20.97644604779137</v>
       </c>
       <c r="H6">
-        <v>2.418030065460417</v>
+        <v>2.347617241871182</v>
       </c>
       <c r="J6">
-        <v>9.021326805174528</v>
+        <v>9.313773032328845</v>
       </c>
       <c r="K6">
-        <v>14.24231300032077</v>
+        <v>13.8823167729295</v>
       </c>
       <c r="L6">
-        <v>6.218480323527277</v>
+        <v>12.09610173914069</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.519816638596565</v>
       </c>
       <c r="N6">
-        <v>6.870306533041802</v>
+        <v>6.179559357495858</v>
       </c>
       <c r="O6">
-        <v>10.83060892122533</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.84095616123823</v>
+        <v>7.004663427498707</v>
       </c>
       <c r="Q6">
-        <v>14.61562657384635</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.79786152410243</v>
+      </c>
+      <c r="R6">
+        <v>12.77997246837234</v>
+      </c>
+      <c r="S6">
+        <v>14.3744638920408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.1041521805525</v>
+        <v>15.99612964011345</v>
       </c>
       <c r="C7">
-        <v>10.21589772543363</v>
+        <v>10.15353371073496</v>
       </c>
       <c r="D7">
-        <v>5.651980940052112</v>
+        <v>5.668573692591772</v>
       </c>
       <c r="E7">
-        <v>8.277186742889064</v>
+        <v>8.221707364309623</v>
       </c>
       <c r="F7">
-        <v>20.07155949013707</v>
+        <v>19.74650823851</v>
       </c>
       <c r="G7">
-        <v>22.19646218572293</v>
+        <v>21.17819623180556</v>
       </c>
       <c r="H7">
-        <v>2.359109699373105</v>
+        <v>2.293359549081615</v>
       </c>
       <c r="J7">
-        <v>9.016844461583339</v>
+        <v>9.281458646301344</v>
       </c>
       <c r="K7">
-        <v>14.20472614455234</v>
+        <v>13.83881198176167</v>
       </c>
       <c r="L7">
-        <v>6.225741633455233</v>
+        <v>12.04208926176447</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.489308464694458</v>
       </c>
       <c r="N7">
-        <v>6.918053086388033</v>
+        <v>6.186631324224106</v>
       </c>
       <c r="O7">
-        <v>10.99323241730185</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.81722962464411</v>
+        <v>7.051811356965429</v>
       </c>
       <c r="Q7">
-        <v>14.63772031651679</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.95820108096983</v>
+      </c>
+      <c r="R7">
+        <v>12.76367458480625</v>
+      </c>
+      <c r="S7">
+        <v>14.38382449614128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.68235623953811</v>
+        <v>17.50876607281718</v>
       </c>
       <c r="C8">
-        <v>10.79422548264655</v>
+        <v>10.83369376727695</v>
       </c>
       <c r="D8">
-        <v>5.768125080222643</v>
+        <v>5.786208152074</v>
       </c>
       <c r="E8">
-        <v>8.325968897863936</v>
+        <v>8.261293585315583</v>
       </c>
       <c r="F8">
-        <v>20.39504059721587</v>
+        <v>20.01112598026589</v>
       </c>
       <c r="G8">
-        <v>22.8144964103309</v>
+        <v>21.90852732637241</v>
       </c>
       <c r="H8">
-        <v>2.108662234056002</v>
+        <v>2.06161434365236</v>
       </c>
       <c r="J8">
-        <v>9.005918465539816</v>
+        <v>9.221707963078511</v>
       </c>
       <c r="K8">
-        <v>14.05468414485471</v>
+        <v>13.66841331064027</v>
       </c>
       <c r="L8">
-        <v>6.256433079740098</v>
+        <v>11.82302293299754</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.406003375163177</v>
       </c>
       <c r="N8">
-        <v>7.124793233108187</v>
+        <v>6.217059669751814</v>
       </c>
       <c r="O8">
-        <v>11.68460495591113</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.71840431401325</v>
+        <v>7.257867886486245</v>
       </c>
       <c r="Q8">
-        <v>14.75338163399623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.6435573084217</v>
+      </c>
+      <c r="R8">
+        <v>12.69620356396378</v>
+      </c>
+      <c r="S8">
+        <v>14.45841305793504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.41855644616008</v>
+        <v>20.14655338647284</v>
       </c>
       <c r="C9">
-        <v>11.83859437241948</v>
+        <v>12.07876578985848</v>
       </c>
       <c r="D9">
-        <v>5.995746168608751</v>
+        <v>6.010056326913305</v>
       </c>
       <c r="E9">
-        <v>8.419072156757368</v>
+        <v>8.335867350614571</v>
       </c>
       <c r="F9">
-        <v>21.10498128903281</v>
+        <v>20.63294791802763</v>
       </c>
       <c r="G9">
-        <v>24.11558986179398</v>
+        <v>23.11633590982867</v>
       </c>
       <c r="H9">
-        <v>1.650938352763571</v>
+        <v>1.636579440694779</v>
       </c>
       <c r="J9">
-        <v>9.017944121658736</v>
+        <v>9.251483170583775</v>
       </c>
       <c r="K9">
-        <v>13.82125019038404</v>
+        <v>13.39793859582659</v>
       </c>
       <c r="L9">
-        <v>6.311934807597949</v>
+        <v>11.44143247382842</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.430980748535998</v>
       </c>
       <c r="N9">
-        <v>7.513685538848218</v>
+        <v>6.273109057777121</v>
       </c>
       <c r="O9">
-        <v>12.93687320435443</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.5463048070646</v>
+        <v>7.650099387333628</v>
       </c>
       <c r="Q9">
-        <v>15.04768478978118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.8895070632776</v>
+      </c>
+      <c r="R9">
+        <v>12.58364281027506</v>
+      </c>
+      <c r="S9">
+        <v>14.69283712703616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.18032790221452</v>
+        <v>21.82355891485959</v>
       </c>
       <c r="C10">
-        <v>12.57560971979253</v>
+        <v>12.90913333285543</v>
       </c>
       <c r="D10">
-        <v>6.132188234490769</v>
+        <v>6.156866387751333</v>
       </c>
       <c r="E10">
-        <v>8.453116497097051</v>
+        <v>8.360663753442578</v>
       </c>
       <c r="F10">
-        <v>21.56867776616845</v>
+        <v>20.97580580669507</v>
       </c>
       <c r="G10">
-        <v>24.98223934180903</v>
+        <v>24.39102537942689</v>
       </c>
       <c r="H10">
-        <v>1.777690096950594</v>
+        <v>1.767390708966866</v>
       </c>
       <c r="J10">
-        <v>9.025372592298558</v>
+        <v>9.063948516036682</v>
       </c>
       <c r="K10">
-        <v>13.64488267827616</v>
+        <v>13.16718035670513</v>
       </c>
       <c r="L10">
-        <v>6.350488414892099</v>
+        <v>11.13618073184873</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.506007886242665</v>
       </c>
       <c r="N10">
-        <v>7.724854204052662</v>
+        <v>6.312736647838281</v>
       </c>
       <c r="O10">
-        <v>13.72534379046846</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.44823066195508</v>
+        <v>7.861298707348483</v>
       </c>
       <c r="Q10">
-        <v>15.24807130913338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.66236636100607</v>
+      </c>
+      <c r="R10">
+        <v>12.53862795715921</v>
+      </c>
+      <c r="S10">
+        <v>14.80017304165268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.65633368875246</v>
+        <v>22.25534839778154</v>
       </c>
       <c r="C11">
-        <v>13.14760724004262</v>
+        <v>13.41980457161771</v>
       </c>
       <c r="D11">
-        <v>5.939899464926693</v>
+        <v>5.985466879440002</v>
       </c>
       <c r="E11">
-        <v>8.247838496501201</v>
+        <v>8.166270489714581</v>
       </c>
       <c r="F11">
-        <v>20.89750101156773</v>
+        <v>20.20770556293446</v>
       </c>
       <c r="G11">
-        <v>24.19777407340066</v>
+        <v>24.64778363306132</v>
       </c>
       <c r="H11">
-        <v>2.747899797122389</v>
+        <v>2.734075780026675</v>
       </c>
       <c r="J11">
-        <v>8.829741438001442</v>
+        <v>8.507089086321105</v>
       </c>
       <c r="K11">
-        <v>13.17742513907355</v>
+        <v>12.68822841532091</v>
       </c>
       <c r="L11">
-        <v>6.408287960050376</v>
+        <v>10.75395128342506</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.215676429529104</v>
       </c>
       <c r="N11">
-        <v>7.291514018238164</v>
+        <v>6.380988100525419</v>
       </c>
       <c r="O11">
-        <v>13.53197236301659</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.5439905101695</v>
+        <v>7.410430770121658</v>
       </c>
       <c r="Q11">
-        <v>14.83682044413661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.44905704015799</v>
+      </c>
+      <c r="R11">
+        <v>12.67529427092772</v>
+      </c>
+      <c r="S11">
+        <v>14.30660689009495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.6982099995754</v>
+        <v>22.29110286135223</v>
       </c>
       <c r="C12">
-        <v>13.48508257019887</v>
+        <v>13.70470894480108</v>
       </c>
       <c r="D12">
-        <v>5.750207624925899</v>
+        <v>5.801891283711955</v>
       </c>
       <c r="E12">
-        <v>8.160207186149577</v>
+        <v>8.084941635638076</v>
       </c>
       <c r="F12">
-        <v>20.21514988117987</v>
+        <v>19.50701154706627</v>
       </c>
       <c r="G12">
-        <v>23.32739260749691</v>
+        <v>24.28818409247836</v>
       </c>
       <c r="H12">
-        <v>4.065795425618044</v>
+        <v>4.055279681894124</v>
       </c>
       <c r="J12">
-        <v>8.657604522304252</v>
+        <v>8.215828806718886</v>
       </c>
       <c r="K12">
-        <v>12.81783882534454</v>
+        <v>12.35028543755728</v>
       </c>
       <c r="L12">
-        <v>6.497184705012899</v>
+        <v>10.51788879541617</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.954573945810638</v>
       </c>
       <c r="N12">
-        <v>6.898934994444477</v>
+        <v>6.477707577969779</v>
       </c>
       <c r="O12">
-        <v>13.19762809430344</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.65740318649201</v>
+        <v>7.003878957745082</v>
       </c>
       <c r="Q12">
-        <v>14.43476556688801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.10767361532049</v>
+      </c>
+      <c r="R12">
+        <v>12.8068970391287</v>
+      </c>
+      <c r="S12">
+        <v>13.88690275027122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.4106025589</v>
+        <v>22.03605465981991</v>
       </c>
       <c r="C13">
-        <v>13.66932159606703</v>
+        <v>13.85520487592882</v>
       </c>
       <c r="D13">
-        <v>5.550107473798667</v>
+        <v>5.592764152188163</v>
       </c>
       <c r="E13">
-        <v>8.157441992118981</v>
+        <v>8.088639018164102</v>
       </c>
       <c r="F13">
-        <v>19.47459335960333</v>
+        <v>18.83061170039721</v>
       </c>
       <c r="G13">
-        <v>22.31863481377946</v>
+        <v>23.20775323693788</v>
       </c>
       <c r="H13">
-        <v>5.457259610028633</v>
+        <v>5.462746499183387</v>
       </c>
       <c r="J13">
-        <v>8.492527650979298</v>
+        <v>8.141942785113915</v>
       </c>
       <c r="K13">
-        <v>12.52165619106557</v>
+        <v>12.10844652643503</v>
       </c>
       <c r="L13">
-        <v>6.610813350634094</v>
+        <v>10.37181031027699</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.713879499782175</v>
       </c>
       <c r="N13">
-        <v>6.514484770127931</v>
+        <v>6.597890221144945</v>
       </c>
       <c r="O13">
-        <v>12.7263151619547</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.78608393341562</v>
+        <v>6.608408987374273</v>
       </c>
       <c r="Q13">
-        <v>14.0114143773564</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.64301877769049</v>
+      </c>
+      <c r="R13">
+        <v>12.93083608145371</v>
+      </c>
+      <c r="S13">
+        <v>13.51404332864199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.0558871164816</v>
+        <v>21.72172636031464</v>
       </c>
       <c r="C14">
-        <v>13.73097944829138</v>
+        <v>13.90126520577139</v>
       </c>
       <c r="D14">
-        <v>5.406168838910518</v>
+        <v>5.436849613675161</v>
       </c>
       <c r="E14">
-        <v>8.205224492832942</v>
+        <v>8.142778593414606</v>
       </c>
       <c r="F14">
-        <v>18.92896502161108</v>
+        <v>18.364656961619</v>
       </c>
       <c r="G14">
-        <v>21.54362304530497</v>
+        <v>22.12848349200043</v>
       </c>
       <c r="H14">
-        <v>6.483541415595832</v>
+        <v>6.486996162935268</v>
       </c>
       <c r="J14">
-        <v>8.380764766092629</v>
+        <v>8.175024942200102</v>
       </c>
       <c r="K14">
-        <v>12.34680397245853</v>
+        <v>11.98280044054054</v>
       </c>
       <c r="L14">
-        <v>6.705136478750055</v>
+        <v>10.30566865259562</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.559312159302175</v>
       </c>
       <c r="N14">
-        <v>6.254900066733232</v>
+        <v>6.696064850995244</v>
       </c>
       <c r="O14">
-        <v>12.32882409266002</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.88254834198073</v>
+        <v>6.342500499445501</v>
       </c>
       <c r="Q14">
-        <v>13.70562277857316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.25610326410014</v>
+      </c>
+      <c r="R14">
+        <v>13.01291695732678</v>
+      </c>
+      <c r="S14">
+        <v>13.27203225398216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.89755922016722</v>
+        <v>21.58094239616083</v>
       </c>
       <c r="C15">
-        <v>13.71266972023601</v>
+        <v>13.88245103932583</v>
       </c>
       <c r="D15">
-        <v>5.36884047439624</v>
+        <v>5.394405108752566</v>
       </c>
       <c r="E15">
-        <v>8.221836715798458</v>
+        <v>8.16203889939796</v>
       </c>
       <c r="F15">
-        <v>18.78627390020134</v>
+        <v>18.25589596744894</v>
       </c>
       <c r="G15">
-        <v>21.32778968564163</v>
+        <v>21.73121098476661</v>
       </c>
       <c r="H15">
-        <v>6.72110317268192</v>
+        <v>6.723848449920583</v>
       </c>
       <c r="J15">
-        <v>8.35597706165913</v>
+        <v>8.220452875165186</v>
       </c>
       <c r="K15">
-        <v>12.31871337088706</v>
+        <v>11.97116218893317</v>
       </c>
       <c r="L15">
-        <v>6.726703201689254</v>
+        <v>10.30474715189352</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.528144001340278</v>
       </c>
       <c r="N15">
-        <v>6.191378139727529</v>
+        <v>6.718469966072875</v>
       </c>
       <c r="O15">
-        <v>12.20258014960919</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.90711146527038</v>
+        <v>6.278124577030968</v>
       </c>
       <c r="Q15">
-        <v>13.62854898414975</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.13494615337745</v>
+      </c>
+      <c r="R15">
+        <v>13.02928349644452</v>
+      </c>
+      <c r="S15">
+        <v>13.22235365042932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.21507091156718</v>
+        <v>20.96431034498093</v>
       </c>
       <c r="C16">
-        <v>13.38038675205266</v>
+        <v>13.57258386087981</v>
       </c>
       <c r="D16">
-        <v>5.348721097994694</v>
+        <v>5.356256593525434</v>
       </c>
       <c r="E16">
-        <v>8.201508372200065</v>
+        <v>8.150016418647565</v>
       </c>
       <c r="F16">
-        <v>18.72023566451424</v>
+        <v>18.31059790677002</v>
       </c>
       <c r="G16">
-        <v>21.11690933697918</v>
+        <v>20.64463288039158</v>
       </c>
       <c r="H16">
-        <v>6.511596075805698</v>
+        <v>6.511320226684054</v>
       </c>
       <c r="J16">
-        <v>8.384786713847253</v>
+        <v>8.555463065984101</v>
       </c>
       <c r="K16">
-        <v>12.45771045930838</v>
+        <v>12.14828429327333</v>
       </c>
       <c r="L16">
-        <v>6.681355902381537</v>
+        <v>10.45174419804445</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.58735562154536</v>
       </c>
       <c r="N16">
-        <v>6.173097576445033</v>
+        <v>6.672626217925128</v>
       </c>
       <c r="O16">
-        <v>11.94314123760614</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.9099700489243</v>
+        <v>6.266186449271966</v>
       </c>
       <c r="Q16">
-        <v>13.61978972442707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.89629031298867</v>
+      </c>
+      <c r="R16">
+        <v>12.9927855903208</v>
+      </c>
+      <c r="S16">
+        <v>13.3119623157071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.87832316223834</v>
+        <v>20.65019180250072</v>
       </c>
       <c r="C17">
-        <v>13.08666584158855</v>
+        <v>13.29459575201112</v>
       </c>
       <c r="D17">
-        <v>5.409935111215252</v>
+        <v>5.411764076435899</v>
       </c>
       <c r="E17">
-        <v>8.153446498694988</v>
+        <v>8.102024172850511</v>
       </c>
       <c r="F17">
-        <v>18.96510045841036</v>
+        <v>18.59261596524666</v>
       </c>
       <c r="G17">
-        <v>21.38091879186375</v>
+        <v>20.52454508659883</v>
       </c>
       <c r="H17">
-        <v>5.773153480368953</v>
+        <v>5.770879145643279</v>
       </c>
       <c r="J17">
-        <v>8.466904747520738</v>
+        <v>8.76676900776674</v>
       </c>
       <c r="K17">
-        <v>12.65570670767782</v>
+        <v>12.34730769056029</v>
       </c>
       <c r="L17">
-        <v>6.593457582897276</v>
+        <v>10.60570817021828</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.707128166004755</v>
       </c>
       <c r="N17">
-        <v>6.294677826048274</v>
+        <v>6.582027292953336</v>
       </c>
       <c r="O17">
-        <v>11.96159135245798</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.86272226256016</v>
+        <v>6.395376235992485</v>
       </c>
       <c r="Q17">
-        <v>13.77849679960967</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.92244087273533</v>
+      </c>
+      <c r="R17">
+        <v>12.9270945048811</v>
+      </c>
+      <c r="S17">
+        <v>13.50126299599212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.81163737354863</v>
+        <v>20.57921804868659</v>
       </c>
       <c r="C18">
-        <v>12.79804795073433</v>
+        <v>13.03031692440913</v>
       </c>
       <c r="D18">
-        <v>5.550562584870016</v>
+        <v>5.551916346340755</v>
       </c>
       <c r="E18">
-        <v>8.122565462190373</v>
+        <v>8.064407311898769</v>
       </c>
       <c r="F18">
-        <v>19.4989205204743</v>
+        <v>19.11816499626452</v>
       </c>
       <c r="G18">
-        <v>22.072678377056</v>
+        <v>21.02841837793781</v>
       </c>
       <c r="H18">
-        <v>4.517106385610379</v>
+        <v>4.513340578244033</v>
       </c>
       <c r="J18">
-        <v>8.602092494935611</v>
+        <v>8.946949717070913</v>
       </c>
       <c r="K18">
-        <v>12.9282971343765</v>
+        <v>12.59802210303949</v>
       </c>
       <c r="L18">
-        <v>6.479742145312763</v>
+        <v>10.7926661014166</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.892945663196953</v>
       </c>
       <c r="N18">
-        <v>6.567398424302105</v>
+        <v>6.463236438845941</v>
       </c>
       <c r="O18">
-        <v>12.22188940591389</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.7712825201514</v>
+        <v>6.678077852347799</v>
       </c>
       <c r="Q18">
-        <v>14.09417523502418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.18396947102219</v>
+      </c>
+      <c r="R18">
+        <v>12.82818582769903</v>
+      </c>
+      <c r="S18">
+        <v>13.8116149767789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.96785478416593</v>
+        <v>20.71359715716645</v>
       </c>
       <c r="C19">
-        <v>12.54056036689386</v>
+        <v>12.80702537199977</v>
       </c>
       <c r="D19">
-        <v>5.748406998786455</v>
+        <v>5.751941198046085</v>
       </c>
       <c r="E19">
-        <v>8.176306464694424</v>
+        <v>8.106430869026999</v>
       </c>
       <c r="F19">
-        <v>20.22158452043801</v>
+        <v>19.80530103228394</v>
       </c>
       <c r="G19">
-        <v>23.04491246204804</v>
+        <v>21.90951621675034</v>
       </c>
       <c r="H19">
-        <v>3.023805866681458</v>
+        <v>3.019100585374025</v>
       </c>
       <c r="J19">
-        <v>8.769217915766861</v>
+        <v>9.113451893751897</v>
       </c>
       <c r="K19">
-        <v>13.24708429880141</v>
+        <v>12.8802736258998</v>
       </c>
       <c r="L19">
-        <v>6.385011378077794</v>
+        <v>10.99795927310693</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.12335374244404</v>
       </c>
       <c r="N19">
-        <v>6.963145197524903</v>
+        <v>6.361100028575136</v>
       </c>
       <c r="O19">
-        <v>12.65117893240458</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.65664162607422</v>
+        <v>7.085203944051321</v>
       </c>
       <c r="Q19">
-        <v>14.50997477667129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.61082399097232</v>
+      </c>
+      <c r="R19">
+        <v>12.71266396377018</v>
+      </c>
+      <c r="S19">
+        <v>14.20086156089086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.73032365233867</v>
+        <v>21.40950481597589</v>
       </c>
       <c r="C20">
-        <v>12.38768596445954</v>
+        <v>12.71819233684244</v>
       </c>
       <c r="D20">
-        <v>6.095120682570827</v>
+        <v>6.109203292336624</v>
       </c>
       <c r="E20">
-        <v>8.442661206793538</v>
+        <v>8.351377376101741</v>
       </c>
       <c r="F20">
-        <v>21.43931659777289</v>
+        <v>20.91359218132077</v>
       </c>
       <c r="G20">
-        <v>24.74518918732607</v>
+        <v>23.76187575866066</v>
       </c>
       <c r="H20">
-        <v>1.696879223343684</v>
+        <v>1.694390620785904</v>
       </c>
       <c r="J20">
-        <v>9.020896515074401</v>
+        <v>9.233970081432775</v>
       </c>
       <c r="K20">
-        <v>13.6863776593041</v>
+        <v>13.23889410102813</v>
       </c>
       <c r="L20">
-        <v>6.340424791296035</v>
+        <v>11.22369626077469</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.491046969138552</v>
       </c>
       <c r="N20">
-        <v>7.667290792363825</v>
+        <v>6.302996030141876</v>
       </c>
       <c r="O20">
-        <v>13.52000286185207</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.47346238045811</v>
+        <v>7.805062116299707</v>
       </c>
       <c r="Q20">
-        <v>15.18991016174688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.46753384803094</v>
+      </c>
+      <c r="R20">
+        <v>12.54490010963238</v>
+      </c>
+      <c r="S20">
+        <v>14.7963457612528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.06588451330423</v>
+        <v>22.60540021484714</v>
       </c>
       <c r="C21">
-        <v>12.88886853459196</v>
+        <v>13.18793883859179</v>
       </c>
       <c r="D21">
-        <v>6.245108812255252</v>
+        <v>6.30995018203882</v>
       </c>
       <c r="E21">
-        <v>8.519915161690927</v>
+        <v>8.427269997921329</v>
       </c>
       <c r="F21">
-        <v>21.96751198191652</v>
+        <v>21.15477969103939</v>
       </c>
       <c r="G21">
-        <v>25.63578676096767</v>
+        <v>26.44861269496418</v>
       </c>
       <c r="H21">
-        <v>1.933152969316351</v>
+        <v>1.904098388936543</v>
       </c>
       <c r="J21">
-        <v>9.069953148479877</v>
+        <v>8.522793432471808</v>
       </c>
       <c r="K21">
-        <v>13.63601353618828</v>
+        <v>13.05331019670171</v>
       </c>
       <c r="L21">
-        <v>6.368629875902389</v>
+        <v>10.98600122722713</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.563692935849557</v>
       </c>
       <c r="N21">
-        <v>7.922272882226958</v>
+        <v>6.327207674651583</v>
       </c>
       <c r="O21">
-        <v>14.19840171873124</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.38046503659686</v>
+        <v>8.055188060435697</v>
       </c>
       <c r="Q21">
-        <v>15.44838289012774</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.1001122612469</v>
+      </c>
+      <c r="R21">
+        <v>12.51954227845873</v>
+      </c>
+      <c r="S21">
+        <v>14.81932852097814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.88337223352803</v>
+        <v>23.33237588295067</v>
       </c>
       <c r="C22">
-        <v>13.21963530412263</v>
+        <v>13.48868733579199</v>
       </c>
       <c r="D22">
-        <v>6.327456900481347</v>
+        <v>6.429347893331689</v>
       </c>
       <c r="E22">
-        <v>8.553286551136722</v>
+        <v>8.462674230128174</v>
       </c>
       <c r="F22">
-        <v>22.26777630210011</v>
+        <v>21.25591204541304</v>
       </c>
       <c r="G22">
-        <v>26.15425737306231</v>
+        <v>28.2434605802153</v>
       </c>
       <c r="H22">
-        <v>2.081304569178225</v>
+        <v>2.035470441440551</v>
       </c>
       <c r="J22">
-        <v>9.094554247939907</v>
+        <v>8.068913805536175</v>
       </c>
       <c r="K22">
-        <v>13.58850950344327</v>
+        <v>12.91036544281444</v>
       </c>
       <c r="L22">
-        <v>6.386778632287216</v>
+        <v>10.81915500502866</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.603040576978872</v>
       </c>
       <c r="N22">
-        <v>8.054149508023624</v>
+        <v>6.343650758374088</v>
       </c>
       <c r="O22">
-        <v>14.59584856792318</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.32971043046776</v>
+        <v>8.182918167691364</v>
       </c>
       <c r="Q22">
-        <v>15.59546930689973</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.46598910274684</v>
+      </c>
+      <c r="R22">
+        <v>12.51700666865221</v>
+      </c>
+      <c r="S22">
+        <v>14.80090509738332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.45056170649767</v>
+        <v>22.95735541218954</v>
       </c>
       <c r="C23">
-        <v>13.0441706910483</v>
+        <v>13.3437175701951</v>
       </c>
       <c r="D23">
-        <v>6.283556747248135</v>
+        <v>6.359631278318865</v>
       </c>
       <c r="E23">
-        <v>8.535484379001728</v>
+        <v>8.442353458640341</v>
       </c>
       <c r="F23">
-        <v>22.10684253572132</v>
+        <v>21.22704938582884</v>
       </c>
       <c r="G23">
-        <v>25.87695830674604</v>
+        <v>27.07646529302872</v>
       </c>
       <c r="H23">
-        <v>2.002517145236418</v>
+        <v>1.966517617477952</v>
       </c>
       <c r="J23">
-        <v>9.081012916551126</v>
+        <v>8.37774953036158</v>
       </c>
       <c r="K23">
-        <v>13.61304049316059</v>
+        <v>12.99762565627022</v>
       </c>
       <c r="L23">
-        <v>6.377130803066336</v>
+        <v>10.91482814216958</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.591116914725811</v>
       </c>
       <c r="N23">
-        <v>7.984012526586834</v>
+        <v>6.335213609091395</v>
       </c>
       <c r="O23">
-        <v>14.3850089877435</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.35654489612852</v>
+        <v>8.116019773160073</v>
       </c>
       <c r="Q23">
-        <v>15.51621797066614</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.27652601444212</v>
+      </c>
+      <c r="R23">
+        <v>12.51415188992068</v>
+      </c>
+      <c r="S23">
+        <v>14.83196524231327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.73424050554525</v>
+        <v>21.41214330304041</v>
       </c>
       <c r="C24">
-        <v>12.35630171204123</v>
+        <v>12.69011581591744</v>
       </c>
       <c r="D24">
-        <v>6.116275690328559</v>
+        <v>6.130303177749925</v>
       </c>
       <c r="E24">
-        <v>8.467830360845555</v>
+        <v>8.375217267326548</v>
       </c>
       <c r="F24">
-        <v>21.51243558210493</v>
+        <v>20.98476467145252</v>
       </c>
       <c r="G24">
-        <v>24.84015258353162</v>
+        <v>23.83610957997418</v>
       </c>
       <c r="H24">
-        <v>1.697785736865902</v>
+        <v>1.695288885140097</v>
       </c>
       <c r="J24">
-        <v>9.03861791955566</v>
+        <v>9.256413016716158</v>
       </c>
       <c r="K24">
-        <v>13.72355595358865</v>
+        <v>13.27273947253776</v>
       </c>
       <c r="L24">
-        <v>6.339725167633863</v>
+        <v>11.2494311772751</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.516504002721618</v>
       </c>
       <c r="N24">
-        <v>7.713071940979813</v>
+        <v>6.301228488075283</v>
       </c>
       <c r="O24">
-        <v>13.55857350234698</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.46367671077123</v>
+        <v>7.852062054422111</v>
       </c>
       <c r="Q24">
-        <v>15.23242846036436</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.50613157324092</v>
+      </c>
+      <c r="R24">
+        <v>12.53421770912036</v>
+      </c>
+      <c r="S24">
+        <v>14.8375015860324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.71644069297315</v>
+        <v>19.4759984520919</v>
       </c>
       <c r="C25">
-        <v>11.56616336220899</v>
+        <v>11.7635536056214</v>
       </c>
       <c r="D25">
-        <v>5.934295426775013</v>
+        <v>5.946292375759518</v>
       </c>
       <c r="E25">
-        <v>8.394126684626757</v>
+        <v>8.315346701181712</v>
       </c>
       <c r="F25">
-        <v>20.90496459733648</v>
+        <v>20.47205802966495</v>
       </c>
       <c r="G25">
-        <v>23.7547473385107</v>
+        <v>22.66153685766382</v>
       </c>
       <c r="H25">
-        <v>1.771282830812426</v>
+        <v>1.747602521547151</v>
       </c>
       <c r="J25">
-        <v>9.01095539387442</v>
+        <v>9.291946396397353</v>
       </c>
       <c r="K25">
-        <v>13.87750215793632</v>
+        <v>13.47166433208657</v>
       </c>
       <c r="L25">
-        <v>6.297404427318806</v>
+        <v>11.54591381848941</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.409119292664444</v>
       </c>
       <c r="N25">
-        <v>7.410449540058192</v>
+        <v>6.258645607794852</v>
       </c>
       <c r="O25">
-        <v>12.60990392309156</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.59048059919987</v>
+        <v>7.546293824755662</v>
       </c>
       <c r="Q25">
-        <v>14.96065528864645</v>
+        <v>12.5671659737944</v>
+      </c>
+      <c r="R25">
+        <v>12.60971432725009</v>
+      </c>
+      <c r="S25">
+        <v>14.63494135506287</v>
       </c>
     </row>
   </sheetData>
